--- a/database/csv/factories.xlsx
+++ b/database/csv/factories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\gmao\database\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\new_gmao\database\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F592C414-D0EE-4299-958E-52EE8CF0F059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAEDAC9-44A3-49C7-9B38-0C106E04F68B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>TARFAYA</t>
   </si>
   <si>
-    <t>TAR</t>
-  </si>
-  <si>
     <t>#FFF</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>{"latitude": "27.134994059817878", "longitude": "-13.20129302220629"}</t>
+  </si>
+  <si>
+    <t>TAR-4</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,25 +435,25 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4),"-","4",DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(8,11)),DEC2HEX(RANDBETWEEN(0,POWER(16,3)),3),"-",DEC2HEX(RANDBETWEEN(0,POWER(16,8)),8),DEC2HEX(RANDBETWEEN(0,POWER(16,4)),4)))</f>
-        <v>d94e078a-7d49-4733-bfdb-7972a1ed16e5</v>
+        <v>b87fce48-d9be-4fa7-80d8-1dffb4390e2d</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
